--- a/doc/results/large_w1.xlsx
+++ b/doc/results/large_w1.xlsx
@@ -3911,12 +3911,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="6" max="8" width="8.88671875" style="3"/>
     <col min="10" max="12" width="8.88671875" style="3"/>
     <col min="14" max="16" width="8.88671875" style="3"/>
   </cols>
@@ -3928,11 +3929,11 @@
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
       <c r="J1" s="5" t="s">
         <v>106</v>
       </c>
@@ -3957,13 +3958,13 @@
       <c r="D2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>101</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -3998,33 +3999,6 @@
       <c r="D3">
         <v>7</v>
       </c>
-      <c r="F3">
-        <v>39</v>
-      </c>
-      <c r="G3">
-        <v>8.3631899999999997E-4</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
-      <c r="J3" s="3">
-        <v>39</v>
-      </c>
-      <c r="K3" s="3">
-        <v>6.7373499999999996E-4</v>
-      </c>
-      <c r="L3" s="3">
-        <v>20</v>
-      </c>
-      <c r="N3" s="3">
-        <v>7</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0.14604600000000001</v>
-      </c>
-      <c r="P3" s="3">
-        <v>7</v>
-      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4037,33 +4011,6 @@
         <v>1.6126100000000001E-2</v>
       </c>
       <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>39</v>
-      </c>
-      <c r="G4">
-        <v>8.4381799999999998E-4</v>
-      </c>
-      <c r="H4">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3">
-        <v>41</v>
-      </c>
-      <c r="K4" s="3">
-        <v>2.0007100000000002E-3</v>
-      </c>
-      <c r="L4" s="3">
-        <v>21</v>
-      </c>
-      <c r="N4" s="3">
-        <v>1.53363</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0.12853500000000001</v>
-      </c>
-      <c r="P4" s="3">
         <v>7</v>
       </c>
     </row>
@@ -4080,33 +4027,6 @@
       <c r="D5">
         <v>7</v>
       </c>
-      <c r="F5">
-        <v>39</v>
-      </c>
-      <c r="G5">
-        <v>1.4637700000000001E-3</v>
-      </c>
-      <c r="H5">
-        <v>20</v>
-      </c>
-      <c r="J5" s="3">
-        <v>41</v>
-      </c>
-      <c r="K5" s="3">
-        <v>2.0584900000000001E-3</v>
-      </c>
-      <c r="L5" s="3">
-        <v>21</v>
-      </c>
-      <c r="N5" s="3">
-        <v>5.1837999999999997</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0.164127</v>
-      </c>
-      <c r="P5" s="3">
-        <v>7</v>
-      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4121,33 +4041,6 @@
       <c r="D6">
         <v>7</v>
       </c>
-      <c r="F6">
-        <v>39</v>
-      </c>
-      <c r="G6">
-        <v>1.70448E-3</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-      <c r="J6" s="3">
-        <v>43</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1.09607E-3</v>
-      </c>
-      <c r="L6" s="3">
-        <v>22</v>
-      </c>
-      <c r="N6" s="3">
-        <v>7</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.176815</v>
-      </c>
-      <c r="P6" s="3">
-        <v>7</v>
-      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -4162,33 +4055,6 @@
       <c r="D7">
         <v>7</v>
       </c>
-      <c r="F7">
-        <v>41</v>
-      </c>
-      <c r="G7">
-        <v>1.8643500000000001E-3</v>
-      </c>
-      <c r="H7">
-        <v>21</v>
-      </c>
-      <c r="J7" s="3">
-        <v>43</v>
-      </c>
-      <c r="K7" s="3">
-        <v>2.0751400000000001E-3</v>
-      </c>
-      <c r="L7" s="3">
-        <v>22</v>
-      </c>
-      <c r="N7" s="3">
-        <v>8.2588000000000008</v>
-      </c>
-      <c r="O7" s="3">
-        <v>7.2128899999999996E-2</v>
-      </c>
-      <c r="P7" s="3">
-        <v>7</v>
-      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -4203,33 +4069,6 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>2.5</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3">
-        <v>5</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -4244,33 +4083,6 @@
       <c r="D9">
         <v>7</v>
       </c>
-      <c r="F9">
-        <v>43</v>
-      </c>
-      <c r="G9">
-        <v>1.84878E-3</v>
-      </c>
-      <c r="H9">
-        <v>22</v>
-      </c>
-      <c r="J9" s="3">
-        <v>43</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1.15361E-3</v>
-      </c>
-      <c r="L9" s="3">
-        <v>22</v>
-      </c>
-      <c r="N9" s="3">
-        <v>47</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0.189412</v>
-      </c>
-      <c r="P9" s="3">
-        <v>7</v>
-      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -4283,33 +4095,6 @@
         <v>1.88878E-2</v>
       </c>
       <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>43</v>
-      </c>
-      <c r="G10">
-        <v>2.04995E-3</v>
-      </c>
-      <c r="H10">
-        <v>22</v>
-      </c>
-      <c r="J10" s="3">
-        <v>43</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1.2899000000000001E-3</v>
-      </c>
-      <c r="L10" s="3">
-        <v>22</v>
-      </c>
-      <c r="N10" s="3">
-        <v>7</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0.14085600000000001</v>
-      </c>
-      <c r="P10" s="3">
         <v>7</v>
       </c>
     </row>
@@ -4326,33 +4111,6 @@
       <c r="D11">
         <v>7</v>
       </c>
-      <c r="F11">
-        <v>43</v>
-      </c>
-      <c r="G11">
-        <v>1.0344200000000001E-3</v>
-      </c>
-      <c r="H11">
-        <v>22</v>
-      </c>
-      <c r="J11" s="3">
-        <v>45</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1.39371E-3</v>
-      </c>
-      <c r="L11" s="3">
-        <v>23</v>
-      </c>
-      <c r="N11" s="3">
-        <v>7</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0.224296</v>
-      </c>
-      <c r="P11" s="3">
-        <v>7</v>
-      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -4367,33 +4125,6 @@
       <c r="D12">
         <v>7</v>
       </c>
-      <c r="F12">
-        <v>43</v>
-      </c>
-      <c r="G12">
-        <v>1.0339500000000001E-3</v>
-      </c>
-      <c r="H12">
-        <v>22</v>
-      </c>
-      <c r="J12" s="3">
-        <v>47</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1.3481599999999999E-3</v>
-      </c>
-      <c r="L12" s="3">
-        <v>24</v>
-      </c>
-      <c r="N12" s="3">
-        <v>7</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0.23682</v>
-      </c>
-      <c r="P12" s="3">
-        <v>7</v>
-      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -4408,33 +4139,6 @@
       <c r="D13">
         <v>7</v>
       </c>
-      <c r="F13">
-        <v>43</v>
-      </c>
-      <c r="G13">
-        <v>1.11535E-3</v>
-      </c>
-      <c r="H13">
-        <v>22</v>
-      </c>
-      <c r="J13" s="3">
-        <v>47</v>
-      </c>
-      <c r="K13" s="3">
-        <v>2.7450999999999999E-3</v>
-      </c>
-      <c r="L13" s="3">
-        <v>24</v>
-      </c>
-      <c r="N13" s="3">
-        <v>7</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0.21043200000000001</v>
-      </c>
-      <c r="P13" s="3">
-        <v>7</v>
-      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -4449,33 +4153,6 @@
       <c r="D14">
         <v>7</v>
       </c>
-      <c r="F14">
-        <v>45</v>
-      </c>
-      <c r="G14">
-        <v>1.1372299999999999E-3</v>
-      </c>
-      <c r="H14">
-        <v>23</v>
-      </c>
-      <c r="J14" s="3">
-        <v>49</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1.46878E-3</v>
-      </c>
-      <c r="L14" s="3">
-        <v>25</v>
-      </c>
-      <c r="N14" s="3">
-        <v>7</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0.26268999999999998</v>
-      </c>
-      <c r="P14" s="3">
-        <v>7</v>
-      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -4490,33 +4167,6 @@
       <c r="D15">
         <v>7</v>
       </c>
-      <c r="F15">
-        <v>47</v>
-      </c>
-      <c r="G15">
-        <v>1.19319E-3</v>
-      </c>
-      <c r="H15">
-        <v>24</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3">
-        <v>7</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0.28070600000000001</v>
-      </c>
-      <c r="P15" s="3">
-        <v>7</v>
-      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -4531,35 +4181,8 @@
       <c r="D16">
         <v>7</v>
       </c>
-      <c r="F16">
-        <v>47</v>
-      </c>
-      <c r="G16">
-        <v>2.4174499999999998E-3</v>
-      </c>
-      <c r="H16">
-        <v>24</v>
-      </c>
-      <c r="J16" s="3">
-        <v>51</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1.59391E-3</v>
-      </c>
-      <c r="L16" s="3">
-        <v>26</v>
-      </c>
-      <c r="N16" s="3">
-        <v>7</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0.29262700000000003</v>
-      </c>
-      <c r="P16" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4572,35 +4195,8 @@
       <c r="D17">
         <v>7</v>
       </c>
-      <c r="F17">
-        <v>47</v>
-      </c>
-      <c r="G17">
-        <v>2.4346900000000002E-3</v>
-      </c>
-      <c r="H17">
-        <v>24</v>
-      </c>
-      <c r="J17" s="3">
-        <v>51</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2.6925500000000002E-3</v>
-      </c>
-      <c r="L17" s="3">
-        <v>26</v>
-      </c>
-      <c r="N17" s="3">
-        <v>7</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0.30168499999999998</v>
-      </c>
-      <c r="P17" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4613,35 +4209,8 @@
       <c r="D18">
         <v>7</v>
       </c>
-      <c r="F18">
-        <v>47</v>
-      </c>
-      <c r="G18">
-        <v>1.2185399999999999E-3</v>
-      </c>
-      <c r="H18">
-        <v>24</v>
-      </c>
-      <c r="J18" s="3">
-        <v>51</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1.6380500000000001E-3</v>
-      </c>
-      <c r="L18" s="3">
-        <v>26</v>
-      </c>
-      <c r="N18" s="3">
-        <v>7</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0.15781700000000001</v>
-      </c>
-      <c r="P18" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4654,35 +4223,8 @@
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="J19" s="3">
-        <v>51</v>
-      </c>
-      <c r="K19" s="3">
-        <v>3.2580399999999998E-3</v>
-      </c>
-      <c r="L19" s="3">
-        <v>26</v>
-      </c>
-      <c r="N19" s="3">
-        <v>2</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4695,35 +4237,8 @@
       <c r="D20">
         <v>7</v>
       </c>
-      <c r="F20">
-        <v>47</v>
-      </c>
-      <c r="G20">
-        <v>9.3177099999999997E-4</v>
-      </c>
-      <c r="H20">
-        <v>24</v>
-      </c>
-      <c r="J20" s="3">
-        <v>53</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1.7407600000000001E-3</v>
-      </c>
-      <c r="L20" s="3">
-        <v>27</v>
-      </c>
-      <c r="N20" s="3">
-        <v>7</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0.18337800000000001</v>
-      </c>
-      <c r="P20" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4736,35 +4251,8 @@
       <c r="D21">
         <v>7</v>
       </c>
-      <c r="F21">
-        <v>49</v>
-      </c>
-      <c r="G21">
-        <v>1.3414500000000001E-3</v>
-      </c>
-      <c r="H21">
-        <v>25</v>
-      </c>
-      <c r="J21" s="3">
-        <v>55</v>
-      </c>
-      <c r="K21" s="3">
-        <v>3.0360399999999998E-3</v>
-      </c>
-      <c r="L21" s="3">
-        <v>28</v>
-      </c>
-      <c r="N21" s="3">
-        <v>7</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0.20320299999999999</v>
-      </c>
-      <c r="P21" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4777,35 +4265,8 @@
       <c r="D22">
         <v>7</v>
       </c>
-      <c r="F22">
-        <v>51</v>
-      </c>
-      <c r="G22">
-        <v>2.2370200000000002E-3</v>
-      </c>
-      <c r="H22">
-        <v>26</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3">
-        <v>7</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0.18715399999999999</v>
-      </c>
-      <c r="P22" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4818,35 +4279,8 @@
       <c r="D23">
         <v>7</v>
       </c>
-      <c r="F23">
-        <v>51</v>
-      </c>
-      <c r="G23">
-        <v>1.4273599999999999E-3</v>
-      </c>
-      <c r="H23">
-        <v>26</v>
-      </c>
-      <c r="J23" s="3">
-        <v>59</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1.5693700000000001E-3</v>
-      </c>
-      <c r="L23" s="3">
-        <v>30</v>
-      </c>
-      <c r="N23" s="3">
-        <v>7</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0.347528</v>
-      </c>
-      <c r="P23" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4859,35 +4293,8 @@
       <c r="D24">
         <v>7</v>
       </c>
-      <c r="F24">
-        <v>51</v>
-      </c>
-      <c r="G24">
-        <v>2.93428E-3</v>
-      </c>
-      <c r="H24">
-        <v>26</v>
-      </c>
-      <c r="J24" s="3">
-        <v>61</v>
-      </c>
-      <c r="K24" s="3">
-        <v>4.7499400000000002E-3</v>
-      </c>
-      <c r="L24" s="3">
-        <v>31</v>
-      </c>
-      <c r="N24" s="3">
-        <v>7</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0.14913899999999999</v>
-      </c>
-      <c r="P24" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4900,35 +4307,8 @@
       <c r="D25">
         <v>7</v>
       </c>
-      <c r="F25">
-        <v>51</v>
-      </c>
-      <c r="G25">
-        <v>1.93816E-3</v>
-      </c>
-      <c r="H25">
-        <v>26</v>
-      </c>
-      <c r="J25" s="3">
-        <v>63</v>
-      </c>
-      <c r="K25" s="3">
-        <v>5.08049E-3</v>
-      </c>
-      <c r="L25" s="3">
-        <v>32</v>
-      </c>
-      <c r="N25" s="3">
-        <v>7</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0.17110600000000001</v>
-      </c>
-      <c r="P25" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4941,35 +4321,8 @@
       <c r="D26">
         <v>7</v>
       </c>
-      <c r="F26">
-        <v>51</v>
-      </c>
-      <c r="G26">
-        <v>2.3109699999999999E-3</v>
-      </c>
-      <c r="H26">
-        <v>26</v>
-      </c>
-      <c r="J26" s="3">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3">
-        <v>7</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0.46528799999999998</v>
-      </c>
-      <c r="P26" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -4982,35 +4335,8 @@
       <c r="D27">
         <v>7</v>
       </c>
-      <c r="F27">
-        <v>53</v>
-      </c>
-      <c r="G27">
-        <v>3.09181E-3</v>
-      </c>
-      <c r="H27">
-        <v>27</v>
-      </c>
-      <c r="J27" s="3">
-        <v>69</v>
-      </c>
-      <c r="K27" s="3">
-        <v>3.4847200000000002E-3</v>
-      </c>
-      <c r="L27" s="3">
-        <v>35</v>
-      </c>
-      <c r="N27" s="3">
-        <v>7</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0.46885100000000002</v>
-      </c>
-      <c r="P27" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -5023,35 +4349,8 @@
       <c r="D28">
         <v>7</v>
       </c>
-      <c r="F28">
-        <v>55</v>
-      </c>
-      <c r="G28">
-        <v>1.63937E-3</v>
-      </c>
-      <c r="H28">
-        <v>28</v>
-      </c>
-      <c r="J28" s="3">
-        <v>7</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
-      <c r="L28" s="3">
-        <v>4</v>
-      </c>
-      <c r="N28" s="3">
-        <v>7</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0.40487699999999999</v>
-      </c>
-      <c r="P28" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5064,35 +4363,8 @@
       <c r="D29">
         <v>7</v>
       </c>
-      <c r="F29">
-        <v>55</v>
-      </c>
-      <c r="G29">
-        <v>3.27568E-3</v>
-      </c>
-      <c r="H29">
-        <v>28</v>
-      </c>
-      <c r="J29" s="3">
-        <v>9</v>
-      </c>
-      <c r="K29" s="3">
-        <v>1.48517E-4</v>
-      </c>
-      <c r="L29" s="3">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
-        <v>7</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0.29345599999999999</v>
-      </c>
-      <c r="P29" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -5105,35 +4377,8 @@
       <c r="D30">
         <v>2</v>
       </c>
-      <c r="F30">
-        <v>5</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="J30" s="3">
-        <v>13</v>
-      </c>
-      <c r="K30" s="3">
-        <v>2.36047E-4</v>
-      </c>
-      <c r="L30" s="3">
-        <v>7</v>
-      </c>
-      <c r="N30" s="3">
-        <v>2</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0</v>
-      </c>
-      <c r="P30" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -5146,35 +4391,8 @@
       <c r="D31">
         <v>7</v>
       </c>
-      <c r="F31">
-        <v>55</v>
-      </c>
-      <c r="G31">
-        <v>1.6554300000000001E-3</v>
-      </c>
-      <c r="H31">
-        <v>28</v>
-      </c>
-      <c r="J31" s="3">
-        <v>15</v>
-      </c>
-      <c r="K31" s="3">
-        <v>1.17613E-4</v>
-      </c>
-      <c r="L31" s="3">
-        <v>8</v>
-      </c>
-      <c r="N31" s="3">
-        <v>7</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0.54518</v>
-      </c>
-      <c r="P31" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -5187,35 +4405,8 @@
       <c r="D32">
         <v>7</v>
       </c>
-      <c r="F32">
-        <v>55</v>
-      </c>
-      <c r="G32">
-        <v>1.67406E-3</v>
-      </c>
-      <c r="H32">
-        <v>28</v>
-      </c>
-      <c r="J32" s="3">
-        <v>15</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1.58348E-4</v>
-      </c>
-      <c r="L32" s="3">
-        <v>8</v>
-      </c>
-      <c r="N32" s="3">
-        <v>7</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0.53863700000000003</v>
-      </c>
-      <c r="P32" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -5228,35 +4419,8 @@
       <c r="D33">
         <v>7</v>
       </c>
-      <c r="F33">
-        <v>55</v>
-      </c>
-      <c r="G33">
-        <v>1.66461E-3</v>
-      </c>
-      <c r="H33">
-        <v>28</v>
-      </c>
-      <c r="J33" s="3">
-        <v>15</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1.7160100000000001E-4</v>
-      </c>
-      <c r="L33" s="3">
-        <v>8</v>
-      </c>
-      <c r="N33" s="3">
-        <v>7</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0.60102500000000003</v>
-      </c>
-      <c r="P33" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -5269,35 +4433,8 @@
       <c r="D34">
         <v>7</v>
       </c>
-      <c r="F34">
-        <v>57</v>
-      </c>
-      <c r="G34">
-        <v>1.5137900000000001E-3</v>
-      </c>
-      <c r="H34">
-        <v>29</v>
-      </c>
-      <c r="J34" s="3">
-        <v>17</v>
-      </c>
-      <c r="K34" s="3">
-        <v>1.7923200000000001E-4</v>
-      </c>
-      <c r="L34" s="3">
-        <v>9</v>
-      </c>
-      <c r="N34" s="3">
-        <v>7</v>
-      </c>
-      <c r="O34" s="3">
-        <v>0.23287099999999999</v>
-      </c>
-      <c r="P34" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -5310,35 +4447,8 @@
       <c r="D35">
         <v>7</v>
       </c>
-      <c r="F35">
-        <v>59</v>
-      </c>
-      <c r="G35">
-        <v>3.7010799999999998E-3</v>
-      </c>
-      <c r="H35">
-        <v>30</v>
-      </c>
-      <c r="J35" s="3">
-        <v>17</v>
-      </c>
-      <c r="K35" s="3">
-        <v>2.0176999999999999E-4</v>
-      </c>
-      <c r="L35" s="3">
-        <v>9</v>
-      </c>
-      <c r="N35" s="3">
-        <v>7</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0.66446899999999998</v>
-      </c>
-      <c r="P35" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -5351,35 +4461,8 @@
       <c r="D36">
         <v>7</v>
       </c>
-      <c r="F36">
-        <v>59</v>
-      </c>
-      <c r="G36">
-        <v>3.75312E-3</v>
-      </c>
-      <c r="H36">
-        <v>30</v>
-      </c>
-      <c r="J36" s="3">
-        <v>19</v>
-      </c>
-      <c r="K36" s="3">
-        <v>2.0921899999999999E-4</v>
-      </c>
-      <c r="L36" s="3">
-        <v>10</v>
-      </c>
-      <c r="N36" s="3">
-        <v>7</v>
-      </c>
-      <c r="O36" s="3">
-        <v>0.70129200000000003</v>
-      </c>
-      <c r="P36" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -5392,35 +4475,8 @@
       <c r="D37">
         <v>7</v>
       </c>
-      <c r="F37">
-        <v>59</v>
-      </c>
-      <c r="G37">
-        <v>3.8004800000000002E-3</v>
-      </c>
-      <c r="H37">
-        <v>30</v>
-      </c>
-      <c r="J37" s="3">
-        <v>19</v>
-      </c>
-      <c r="K37" s="3">
-        <v>3.9819900000000001E-4</v>
-      </c>
-      <c r="L37" s="3">
-        <v>10</v>
-      </c>
-      <c r="N37" s="3">
-        <v>7</v>
-      </c>
-      <c r="O37" s="3">
-        <v>0.737985</v>
-      </c>
-      <c r="P37" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -5433,35 +4489,8 @@
       <c r="D38">
         <v>7</v>
       </c>
-      <c r="F38">
-        <v>59</v>
-      </c>
-      <c r="G38">
-        <v>1.91847E-3</v>
-      </c>
-      <c r="H38">
-        <v>30</v>
-      </c>
-      <c r="J38" s="3">
-        <v>19</v>
-      </c>
-      <c r="K38" s="3">
-        <v>2.31921E-4</v>
-      </c>
-      <c r="L38" s="3">
-        <v>10</v>
-      </c>
-      <c r="N38" s="3">
-        <v>7</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0.76298100000000002</v>
-      </c>
-      <c r="P38" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -5474,35 +4503,8 @@
       <c r="D39">
         <v>7</v>
       </c>
-      <c r="F39">
-        <v>59</v>
-      </c>
-      <c r="G39">
-        <v>3.1374100000000002E-3</v>
-      </c>
-      <c r="H39">
-        <v>30</v>
-      </c>
-      <c r="J39" s="3">
-        <v>19</v>
-      </c>
-      <c r="K39" s="3">
-        <v>2.3606699999999999E-4</v>
-      </c>
-      <c r="L39" s="3">
-        <v>10</v>
-      </c>
-      <c r="N39" s="3">
-        <v>7</v>
-      </c>
-      <c r="O39" s="3">
-        <v>0.75521799999999994</v>
-      </c>
-      <c r="P39" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -5515,35 +4517,8 @@
       <c r="D40">
         <v>7</v>
       </c>
-      <c r="F40">
-        <v>61</v>
-      </c>
-      <c r="G40">
-        <v>3.5037900000000001E-3</v>
-      </c>
-      <c r="H40">
-        <v>31</v>
-      </c>
-      <c r="J40" s="3">
-        <v>21</v>
-      </c>
-      <c r="K40" s="3">
-        <v>3.3329799999999999E-4</v>
-      </c>
-      <c r="L40" s="3">
-        <v>11</v>
-      </c>
-      <c r="N40" s="3">
-        <v>2.5992099999999998</v>
-      </c>
-      <c r="O40" s="3">
-        <v>0.82496800000000003</v>
-      </c>
-      <c r="P40" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -5556,35 +4531,8 @@
       <c r="D41">
         <v>2</v>
       </c>
-      <c r="F41">
-        <v>5</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3">
-        <v>21</v>
-      </c>
-      <c r="K41" s="3">
-        <v>2.74197E-4</v>
-      </c>
-      <c r="L41" s="3">
-        <v>11</v>
-      </c>
-      <c r="N41" s="3">
-        <v>2</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1.3889800000000001E-4</v>
-      </c>
-      <c r="P41" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -5597,35 +4545,8 @@
       <c r="D42">
         <v>7</v>
       </c>
-      <c r="F42">
-        <v>63</v>
-      </c>
-      <c r="G42">
-        <v>4.3171299999999998E-3</v>
-      </c>
-      <c r="H42">
-        <v>32</v>
-      </c>
-      <c r="J42" s="3">
-        <v>23</v>
-      </c>
-      <c r="K42" s="3">
-        <v>3.0306300000000001E-4</v>
-      </c>
-      <c r="L42" s="3">
-        <v>12</v>
-      </c>
-      <c r="N42" s="3">
-        <v>3.1747899999999998</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0.87616700000000003</v>
-      </c>
-      <c r="P42" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -5638,35 +4559,8 @@
       <c r="D43">
         <v>7</v>
       </c>
-      <c r="F43">
-        <v>63</v>
-      </c>
-      <c r="G43">
-        <v>4.3120900000000002E-3</v>
-      </c>
-      <c r="H43">
-        <v>32</v>
-      </c>
-      <c r="J43" s="3">
-        <v>23</v>
-      </c>
-      <c r="K43" s="3">
-        <v>7.1260599999999996E-4</v>
-      </c>
-      <c r="L43" s="3">
-        <v>12</v>
-      </c>
-      <c r="N43" s="3">
-        <v>7</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0.70764199999999999</v>
-      </c>
-      <c r="P43" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -5679,35 +4573,8 @@
       <c r="D44">
         <v>7</v>
       </c>
-      <c r="F44">
-        <v>63</v>
-      </c>
-      <c r="G44">
-        <v>2.8484199999999999E-3</v>
-      </c>
-      <c r="H44">
-        <v>32</v>
-      </c>
-      <c r="J44" s="3">
-        <v>23</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3.2779899999999998E-4</v>
-      </c>
-      <c r="L44" s="3">
-        <v>12</v>
-      </c>
-      <c r="N44" s="3">
-        <v>7</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0.94117200000000001</v>
-      </c>
-      <c r="P44" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -5720,35 +4587,8 @@
       <c r="D45">
         <v>7</v>
       </c>
-      <c r="F45">
-        <v>63</v>
-      </c>
-      <c r="G45">
-        <v>2.2287399999999999E-3</v>
-      </c>
-      <c r="H45">
-        <v>32</v>
-      </c>
-      <c r="J45" s="3">
-        <v>23</v>
-      </c>
-      <c r="K45" s="3">
-        <v>3.3487399999999998E-4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>12</v>
-      </c>
-      <c r="N45" s="3">
-        <v>7</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0.95437000000000005</v>
-      </c>
-      <c r="P45" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -5761,35 +4601,8 @@
       <c r="D46">
         <v>7</v>
       </c>
-      <c r="F46">
-        <v>63</v>
-      </c>
-      <c r="G46">
-        <v>2.2318899999999998E-3</v>
-      </c>
-      <c r="H46">
-        <v>32</v>
-      </c>
-      <c r="J46" s="3">
-        <v>25</v>
-      </c>
-      <c r="K46" s="3">
-        <v>5.7644900000000004E-4</v>
-      </c>
-      <c r="L46" s="3">
-        <v>13</v>
-      </c>
-      <c r="N46" s="3">
-        <v>7</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1.0479799999999999</v>
-      </c>
-      <c r="P46" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -5802,35 +4615,8 @@
       <c r="D47">
         <v>7</v>
       </c>
-      <c r="F47">
-        <v>65</v>
-      </c>
-      <c r="G47">
-        <v>2.6965700000000001E-3</v>
-      </c>
-      <c r="H47">
-        <v>33</v>
-      </c>
-      <c r="J47" s="3">
-        <v>25</v>
-      </c>
-      <c r="K47" s="3">
-        <v>4.4539800000000001E-4</v>
-      </c>
-      <c r="L47" s="3">
-        <v>13</v>
-      </c>
-      <c r="N47" s="3">
-        <v>7</v>
-      </c>
-      <c r="O47" s="3">
-        <v>1.0398799999999999</v>
-      </c>
-      <c r="P47" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -5843,35 +4629,8 @@
       <c r="D48">
         <v>7</v>
       </c>
-      <c r="F48">
-        <v>67</v>
-      </c>
-      <c r="G48">
-        <v>2.8435600000000002E-3</v>
-      </c>
-      <c r="H48">
-        <v>34</v>
-      </c>
-      <c r="J48" s="3">
-        <v>27</v>
-      </c>
-      <c r="K48" s="3">
-        <v>4.36556E-4</v>
-      </c>
-      <c r="L48" s="3">
-        <v>14</v>
-      </c>
-      <c r="N48" s="3">
-        <v>7</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1.0765499999999999</v>
-      </c>
-      <c r="P48" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -5884,35 +4643,8 @@
       <c r="D49">
         <v>7</v>
       </c>
-      <c r="F49">
-        <v>67</v>
-      </c>
-      <c r="G49">
-        <v>2.36849E-3</v>
-      </c>
-      <c r="H49">
-        <v>34</v>
-      </c>
-      <c r="J49" s="3">
-        <v>27</v>
-      </c>
-      <c r="K49" s="3">
-        <v>7.9954699999999995E-4</v>
-      </c>
-      <c r="L49" s="3">
-        <v>14</v>
-      </c>
-      <c r="N49" s="3">
-        <v>7</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1.0989899999999999</v>
-      </c>
-      <c r="P49" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -5925,35 +4657,8 @@
       <c r="D50">
         <v>7</v>
       </c>
-      <c r="F50">
-        <v>67</v>
-      </c>
-      <c r="G50">
-        <v>2.88982E-3</v>
-      </c>
-      <c r="H50">
-        <v>34</v>
-      </c>
-      <c r="J50" s="3">
-        <v>27</v>
-      </c>
-      <c r="K50" s="3">
-        <v>3.1819599999999997E-4</v>
-      </c>
-      <c r="L50" s="3">
-        <v>14</v>
-      </c>
-      <c r="N50" s="3">
-        <v>2.61991</v>
-      </c>
-      <c r="O50" s="3">
-        <v>1.15083</v>
-      </c>
-      <c r="P50" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -5966,35 +4671,8 @@
       <c r="D51">
         <v>7</v>
       </c>
-      <c r="F51">
-        <v>67</v>
-      </c>
-      <c r="G51">
-        <v>1.8476899999999999E-3</v>
-      </c>
-      <c r="H51">
-        <v>34</v>
-      </c>
-      <c r="J51" s="3">
-        <v>27</v>
-      </c>
-      <c r="K51" s="3">
-        <v>9.1603300000000002E-4</v>
-      </c>
-      <c r="L51" s="3">
-        <v>14</v>
-      </c>
-      <c r="N51" s="3">
-        <v>7</v>
-      </c>
-      <c r="O51" s="3">
-        <v>1.19665</v>
-      </c>
-      <c r="P51" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -6007,35 +4685,8 @@
       <c r="D52">
         <v>2</v>
       </c>
-      <c r="F52">
-        <v>5</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3">
-        <v>29</v>
-      </c>
-      <c r="K52" s="3">
-        <v>7.5559399999999995E-4</v>
-      </c>
-      <c r="L52" s="3">
-        <v>15</v>
-      </c>
-      <c r="N52" s="3">
-        <v>2</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1.11543E-4</v>
-      </c>
-      <c r="P52" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -6048,35 +4699,8 @@
       <c r="D53">
         <v>7</v>
       </c>
-      <c r="F53">
-        <v>67</v>
-      </c>
-      <c r="G53">
-        <v>3.6703600000000001E-3</v>
-      </c>
-      <c r="H53">
-        <v>34</v>
-      </c>
-      <c r="J53" s="3">
-        <v>29</v>
-      </c>
-      <c r="K53" s="3">
-        <v>5.09963E-4</v>
-      </c>
-      <c r="L53" s="3">
-        <v>15</v>
-      </c>
-      <c r="N53" s="3">
-        <v>7</v>
-      </c>
-      <c r="O53" s="3">
-        <v>0.48379699999999998</v>
-      </c>
-      <c r="P53" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -6089,35 +4713,8 @@
       <c r="D54">
         <v>7</v>
       </c>
-      <c r="F54">
-        <v>69</v>
-      </c>
-      <c r="G54">
-        <v>4.8216700000000001E-3</v>
-      </c>
-      <c r="H54">
-        <v>35</v>
-      </c>
-      <c r="J54" s="3">
-        <v>31</v>
-      </c>
-      <c r="K54" s="3">
-        <v>5.7595300000000003E-4</v>
-      </c>
-      <c r="L54" s="3">
-        <v>16</v>
-      </c>
-      <c r="N54" s="3">
-        <v>8.4120299999999997</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1.30602</v>
-      </c>
-      <c r="P54" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -6130,35 +4727,8 @@
       <c r="D55">
         <v>7</v>
       </c>
-      <c r="F55">
-        <v>71</v>
-      </c>
-      <c r="G55">
-        <v>2.7210200000000002E-3</v>
-      </c>
-      <c r="H55">
-        <v>36</v>
-      </c>
-      <c r="J55" s="3">
-        <v>31</v>
-      </c>
-      <c r="K55" s="3">
-        <v>1.1588200000000001E-3</v>
-      </c>
-      <c r="L55" s="3">
-        <v>16</v>
-      </c>
-      <c r="N55" s="3">
-        <v>7</v>
-      </c>
-      <c r="O55" s="3">
-        <v>1.3261499999999999</v>
-      </c>
-      <c r="P55" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -6171,35 +4741,8 @@
       <c r="D56">
         <v>7</v>
       </c>
-      <c r="F56">
-        <v>71</v>
-      </c>
-      <c r="G56">
-        <v>2.7763499999999999E-3</v>
-      </c>
-      <c r="H56">
-        <v>36</v>
-      </c>
-      <c r="J56" s="3">
-        <v>31</v>
-      </c>
-      <c r="K56" s="3">
-        <v>5.8567099999999996E-4</v>
-      </c>
-      <c r="L56" s="3">
-        <v>16</v>
-      </c>
-      <c r="N56" s="3">
-        <v>7</v>
-      </c>
-      <c r="O56" s="3">
-        <v>1.32517</v>
-      </c>
-      <c r="P56" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -6212,35 +4755,8 @@
       <c r="D57">
         <v>7</v>
       </c>
-      <c r="F57">
-        <v>71</v>
-      </c>
-      <c r="G57">
-        <v>3.3236199999999998E-3</v>
-      </c>
-      <c r="H57">
-        <v>36</v>
-      </c>
-      <c r="J57" s="3">
-        <v>31</v>
-      </c>
-      <c r="K57" s="3">
-        <v>8.39695E-4</v>
-      </c>
-      <c r="L57" s="3">
-        <v>16</v>
-      </c>
-      <c r="N57" s="3">
-        <v>7</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1.26481</v>
-      </c>
-      <c r="P57" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -6253,35 +4769,8 @@
       <c r="D58">
         <v>8</v>
       </c>
-      <c r="F58">
-        <v>74.5</v>
-      </c>
-      <c r="G58">
-        <v>4.6016E-3</v>
-      </c>
-      <c r="H58">
-        <v>38</v>
-      </c>
-      <c r="J58" s="3">
-        <v>33</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1.2056600000000001E-3</v>
-      </c>
-      <c r="L58" s="3">
-        <v>17</v>
-      </c>
-      <c r="N58" s="3">
-        <v>4.7570699999999997</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1.5565500000000001</v>
-      </c>
-      <c r="P58" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -6294,35 +4783,8 @@
       <c r="D59">
         <v>3</v>
       </c>
-      <c r="F59">
-        <v>10.5</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>6</v>
-      </c>
-      <c r="J59" s="3">
-        <v>33</v>
-      </c>
-      <c r="K59" s="3">
-        <v>6.7428200000000001E-4</v>
-      </c>
-      <c r="L59" s="3">
-        <v>17</v>
-      </c>
-      <c r="N59" s="3">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
-        <v>2.6118799999999998E-4</v>
-      </c>
-      <c r="P59" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -6335,35 +4797,8 @@
       <c r="D60">
         <v>3</v>
       </c>
-      <c r="F60">
-        <v>11</v>
-      </c>
-      <c r="G60">
-        <v>2.06842E-4</v>
-      </c>
-      <c r="H60">
-        <v>6</v>
-      </c>
-      <c r="J60" s="3">
-        <v>35</v>
-      </c>
-      <c r="K60" s="3">
-        <v>8.2895400000000002E-4</v>
-      </c>
-      <c r="L60" s="3">
-        <v>18</v>
-      </c>
-      <c r="N60" s="3">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3">
-        <v>3.1059700000000002E-4</v>
-      </c>
-      <c r="P60" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -6376,35 +4811,8 @@
       <c r="D61">
         <v>3</v>
       </c>
-      <c r="F61">
-        <v>11</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>6</v>
-      </c>
-      <c r="J61" s="3">
-        <v>35</v>
-      </c>
-      <c r="K61" s="3">
-        <v>7.2785099999999995E-4</v>
-      </c>
-      <c r="L61" s="3">
-        <v>18</v>
-      </c>
-      <c r="N61" s="3">
-        <v>4</v>
-      </c>
-      <c r="O61" s="3">
-        <v>4.6730399999999998E-4</v>
-      </c>
-      <c r="P61" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -6417,35 +4825,8 @@
       <c r="D62">
         <v>3</v>
       </c>
-      <c r="F62">
-        <v>11</v>
-      </c>
-      <c r="G62">
-        <v>2.2099899999999999E-4</v>
-      </c>
-      <c r="H62">
-        <v>6</v>
-      </c>
-      <c r="J62" s="3">
-        <v>35</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1.49135E-3</v>
-      </c>
-      <c r="L62" s="3">
-        <v>18</v>
-      </c>
-      <c r="N62" s="3">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3">
-        <v>6.3152800000000002E-4</v>
-      </c>
-      <c r="P62" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -6458,35 +4839,8 @@
       <c r="D63">
         <v>4</v>
       </c>
-      <c r="F63">
-        <v>13</v>
-      </c>
-      <c r="G63">
-        <v>2.6498899999999998E-4</v>
-      </c>
-      <c r="H63">
-        <v>7</v>
-      </c>
-      <c r="J63" s="3">
-        <v>35</v>
-      </c>
-      <c r="K63" s="3">
-        <v>7.6329900000000005E-4</v>
-      </c>
-      <c r="L63" s="3">
-        <v>18</v>
-      </c>
-      <c r="N63" s="3">
-        <v>4</v>
-      </c>
-      <c r="O63" s="3">
-        <v>6.1587199999999995E-4</v>
-      </c>
-      <c r="P63" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -6499,35 +4853,8 @@
       <c r="D64">
         <v>4</v>
       </c>
-      <c r="F64">
-        <v>15</v>
-      </c>
-      <c r="G64">
-        <v>3.04013E-4</v>
-      </c>
-      <c r="H64">
-        <v>8</v>
-      </c>
-      <c r="J64" s="3">
-        <v>3</v>
-      </c>
-      <c r="K64" s="3">
-        <v>0</v>
-      </c>
-      <c r="L64" s="3">
-        <v>2</v>
-      </c>
-      <c r="N64" s="3">
-        <v>4</v>
-      </c>
-      <c r="O64" s="3">
-        <v>1.3678399999999999E-3</v>
-      </c>
-      <c r="P64" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -6540,35 +4867,8 @@
       <c r="D65">
         <v>5</v>
       </c>
-      <c r="F65">
-        <v>15</v>
-      </c>
-      <c r="G65">
-        <v>1.6317799999999999E-4</v>
-      </c>
-      <c r="H65">
-        <v>8</v>
-      </c>
-      <c r="J65" s="3">
-        <v>37</v>
-      </c>
-      <c r="K65" s="3">
-        <v>1.5084899999999999E-3</v>
-      </c>
-      <c r="L65" s="3">
-        <v>19</v>
-      </c>
-      <c r="N65" s="3">
-        <v>5</v>
-      </c>
-      <c r="O65" s="3">
-        <v>1.7446E-3</v>
-      </c>
-      <c r="P65" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -6581,35 +4881,8 @@
       <c r="D66">
         <v>9</v>
       </c>
-      <c r="F66">
-        <v>15</v>
-      </c>
-      <c r="G66">
-        <v>1.6836600000000001E-4</v>
-      </c>
-      <c r="H66">
-        <v>8</v>
-      </c>
-      <c r="J66" s="3">
-        <v>37</v>
-      </c>
-      <c r="K66" s="3">
-        <v>8.5154000000000002E-4</v>
-      </c>
-      <c r="L66" s="3">
-        <v>19</v>
-      </c>
-      <c r="N66" s="3">
-        <v>9</v>
-      </c>
-      <c r="O66" s="3">
-        <v>4.0962400000000001E-3</v>
-      </c>
-      <c r="P66" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -6622,35 +4895,8 @@
       <c r="D67">
         <v>10</v>
       </c>
-      <c r="F67">
-        <v>17</v>
-      </c>
-      <c r="G67">
-        <v>3.7438199999999998E-4</v>
-      </c>
-      <c r="H67">
-        <v>9</v>
-      </c>
-      <c r="J67" s="3">
-        <v>39</v>
-      </c>
-      <c r="K67" s="3">
-        <v>1.7707599999999999E-3</v>
-      </c>
-      <c r="L67" s="3">
-        <v>20</v>
-      </c>
-      <c r="N67" s="3">
-        <v>10</v>
-      </c>
-      <c r="O67" s="3">
-        <v>2.8102399999999999E-3</v>
-      </c>
-      <c r="P67" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -6663,35 +4909,8 @@
       <c r="D68">
         <v>6</v>
       </c>
-      <c r="F68">
-        <v>19</v>
-      </c>
-      <c r="G68">
-        <v>3.99107E-4</v>
-      </c>
-      <c r="H68">
-        <v>10</v>
-      </c>
-      <c r="J68" s="3">
-        <v>39</v>
-      </c>
-      <c r="K68" s="3">
-        <v>1.6997E-3</v>
-      </c>
-      <c r="L68" s="3">
-        <v>20</v>
-      </c>
-      <c r="N68" s="3">
-        <v>7</v>
-      </c>
-      <c r="O68" s="3">
-        <v>4.6752E-3</v>
-      </c>
-      <c r="P68" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -6704,35 +4923,8 @@
       <c r="D69">
         <v>6</v>
       </c>
-      <c r="F69">
-        <v>19</v>
-      </c>
-      <c r="G69">
-        <v>2.2348100000000001E-4</v>
-      </c>
-      <c r="H69">
-        <v>10</v>
-      </c>
-      <c r="J69" s="3">
-        <v>39</v>
-      </c>
-      <c r="K69" s="3">
-        <v>1.887E-3</v>
-      </c>
-      <c r="L69" s="3">
-        <v>20</v>
-      </c>
-      <c r="N69" s="3">
-        <v>7</v>
-      </c>
-      <c r="O69" s="3">
-        <v>3.1127899999999998E-3</v>
-      </c>
-      <c r="P69" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -6745,26 +4937,8 @@
       <c r="D70">
         <v>6</v>
       </c>
-      <c r="F70">
-        <v>19</v>
-      </c>
-      <c r="G70">
-        <v>2.3042200000000001E-4</v>
-      </c>
-      <c r="H70">
-        <v>10</v>
-      </c>
-      <c r="N70" s="3">
-        <v>7</v>
-      </c>
-      <c r="O70" s="3">
-        <v>3.69083E-3</v>
-      </c>
-      <c r="P70" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -6777,26 +4951,8 @@
       <c r="D71">
         <v>6</v>
       </c>
-      <c r="F71">
-        <v>19</v>
-      </c>
-      <c r="G71">
-        <v>2.4361200000000001E-4</v>
-      </c>
-      <c r="H71">
-        <v>10</v>
-      </c>
-      <c r="N71" s="3">
-        <v>7</v>
-      </c>
-      <c r="O71" s="3">
-        <v>6.6022800000000003E-3</v>
-      </c>
-      <c r="P71" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -6809,26 +4965,8 @@
       <c r="D72">
         <v>7</v>
       </c>
-      <c r="F72">
-        <v>19</v>
-      </c>
-      <c r="G72">
-        <v>2.4884700000000001E-4</v>
-      </c>
-      <c r="H72">
-        <v>10</v>
-      </c>
-      <c r="N72" s="3">
-        <v>7</v>
-      </c>
-      <c r="O72" s="3">
-        <v>5.2735400000000002E-3</v>
-      </c>
-      <c r="P72" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -6841,26 +4979,8 @@
       <c r="D73">
         <v>7</v>
       </c>
-      <c r="F73">
-        <v>21</v>
-      </c>
-      <c r="G73">
-        <v>2.7487799999999999E-4</v>
-      </c>
-      <c r="H73">
-        <v>11</v>
-      </c>
-      <c r="N73" s="3">
-        <v>7</v>
-      </c>
-      <c r="O73" s="3">
-        <v>1.1200099999999999E-2</v>
-      </c>
-      <c r="P73" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -6873,26 +4993,8 @@
       <c r="D74">
         <v>7</v>
       </c>
-      <c r="F74">
-        <v>23</v>
-      </c>
-      <c r="G74">
-        <v>6.0409299999999999E-4</v>
-      </c>
-      <c r="H74">
-        <v>12</v>
-      </c>
-      <c r="N74" s="3">
-        <v>7</v>
-      </c>
-      <c r="O74" s="3">
-        <v>1.29882E-2</v>
-      </c>
-      <c r="P74" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -6905,26 +5007,8 @@
       <c r="D75">
         <v>7</v>
       </c>
-      <c r="F75">
-        <v>23</v>
-      </c>
-      <c r="G75">
-        <v>6.3681100000000004E-4</v>
-      </c>
-      <c r="H75">
-        <v>12</v>
-      </c>
-      <c r="N75" s="3">
-        <v>7</v>
-      </c>
-      <c r="O75" s="3">
-        <v>8.3449200000000005E-3</v>
-      </c>
-      <c r="P75" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -6937,26 +5021,8 @@
       <c r="D76">
         <v>7</v>
       </c>
-      <c r="F76">
-        <v>23</v>
-      </c>
-      <c r="G76">
-        <v>4.19417E-4</v>
-      </c>
-      <c r="H76">
-        <v>12</v>
-      </c>
-      <c r="N76" s="3">
-        <v>7</v>
-      </c>
-      <c r="O76" s="3">
-        <v>1.5893999999999998E-2</v>
-      </c>
-      <c r="P76" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -6969,26 +5035,8 @@
       <c r="D77">
         <v>7</v>
       </c>
-      <c r="F77">
-        <v>23</v>
-      </c>
-      <c r="G77">
-        <v>5.2564300000000001E-4</v>
-      </c>
-      <c r="H77">
-        <v>12</v>
-      </c>
-      <c r="N77" s="3">
-        <v>7</v>
-      </c>
-      <c r="O77" s="3">
-        <v>2.0700699999999999E-2</v>
-      </c>
-      <c r="P77" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -7001,26 +5049,8 @@
       <c r="D78">
         <v>7</v>
       </c>
-      <c r="F78">
-        <v>23</v>
-      </c>
-      <c r="G78">
-        <v>6.8820899999999996E-4</v>
-      </c>
-      <c r="H78">
-        <v>12</v>
-      </c>
-      <c r="N78" s="3">
-        <v>7</v>
-      </c>
-      <c r="O78" s="3">
-        <v>2.0474200000000001E-2</v>
-      </c>
-      <c r="P78" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -7033,26 +5063,8 @@
       <c r="D79">
         <v>7</v>
       </c>
-      <c r="F79">
-        <v>25</v>
-      </c>
-      <c r="G79">
-        <v>6.0142500000000005E-4</v>
-      </c>
-      <c r="H79">
-        <v>13</v>
-      </c>
-      <c r="N79" s="3">
-        <v>7</v>
-      </c>
-      <c r="O79" s="3">
-        <v>2.21342E-2</v>
-      </c>
-      <c r="P79" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -7065,26 +5077,8 @@
       <c r="D80">
         <v>7</v>
       </c>
-      <c r="F80">
-        <v>27</v>
-      </c>
-      <c r="G80">
-        <v>7.1517499999999997E-4</v>
-      </c>
-      <c r="H80">
-        <v>14</v>
-      </c>
-      <c r="N80" s="3">
-        <v>7</v>
-      </c>
-      <c r="O80" s="3">
-        <v>1.5239000000000001E-2</v>
-      </c>
-      <c r="P80" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -7097,26 +5091,8 @@
       <c r="D81">
         <v>7</v>
       </c>
-      <c r="F81">
-        <v>27</v>
-      </c>
-      <c r="G81">
-        <v>3.3441699999999999E-4</v>
-      </c>
-      <c r="H81">
-        <v>14</v>
-      </c>
-      <c r="N81" s="3">
-        <v>7</v>
-      </c>
-      <c r="O81" s="3">
-        <v>2.89459E-2</v>
-      </c>
-      <c r="P81" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -7129,26 +5105,8 @@
       <c r="D82">
         <v>7</v>
       </c>
-      <c r="F82">
-        <v>27</v>
-      </c>
-      <c r="G82">
-        <v>4.3949400000000002E-4</v>
-      </c>
-      <c r="H82">
-        <v>14</v>
-      </c>
-      <c r="N82" s="3">
-        <v>7</v>
-      </c>
-      <c r="O82" s="3">
-        <v>2.9579999999999999E-2</v>
-      </c>
-      <c r="P82" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -7161,26 +5119,8 @@
       <c r="D83">
         <v>7</v>
       </c>
-      <c r="F83">
-        <v>27</v>
-      </c>
-      <c r="G83">
-        <v>4.4123699999999998E-4</v>
-      </c>
-      <c r="H83">
-        <v>14</v>
-      </c>
-      <c r="N83" s="3">
-        <v>7</v>
-      </c>
-      <c r="O83" s="3">
-        <v>3.4983300000000002E-2</v>
-      </c>
-      <c r="P83" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -7193,26 +5133,8 @@
       <c r="D84">
         <v>7</v>
       </c>
-      <c r="F84">
-        <v>27</v>
-      </c>
-      <c r="G84">
-        <v>4.5314900000000002E-4</v>
-      </c>
-      <c r="H84">
-        <v>14</v>
-      </c>
-      <c r="N84" s="3">
-        <v>7</v>
-      </c>
-      <c r="O84" s="3">
-        <v>3.0354300000000001E-2</v>
-      </c>
-      <c r="P84" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -7225,26 +5147,8 @@
       <c r="D85">
         <v>7</v>
       </c>
-      <c r="F85">
-        <v>29</v>
-      </c>
-      <c r="G85">
-        <v>7.8707099999999997E-4</v>
-      </c>
-      <c r="H85">
-        <v>15</v>
-      </c>
-      <c r="N85" s="3">
-        <v>7</v>
-      </c>
-      <c r="O85" s="3">
-        <v>1.83632E-2</v>
-      </c>
-      <c r="P85" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -7257,26 +5161,8 @@
       <c r="D86">
         <v>7</v>
       </c>
-      <c r="F86">
-        <v>31</v>
-      </c>
-      <c r="G86">
-        <v>5.3192500000000004E-4</v>
-      </c>
-      <c r="H86">
-        <v>16</v>
-      </c>
-      <c r="N86" s="3">
-        <v>7</v>
-      </c>
-      <c r="O86" s="3">
-        <v>3.9079999999999997E-2</v>
-      </c>
-      <c r="P86" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -7289,26 +5175,8 @@
       <c r="D87">
         <v>7</v>
       </c>
-      <c r="F87">
-        <v>31</v>
-      </c>
-      <c r="G87">
-        <v>1.1086E-3</v>
-      </c>
-      <c r="H87">
-        <v>16</v>
-      </c>
-      <c r="N87" s="3">
-        <v>7</v>
-      </c>
-      <c r="O87" s="3">
-        <v>5.1096099999999998E-2</v>
-      </c>
-      <c r="P87" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -7321,26 +5189,8 @@
       <c r="D88">
         <v>7</v>
       </c>
-      <c r="F88">
-        <v>31</v>
-      </c>
-      <c r="G88">
-        <v>5.5484399999999998E-4</v>
-      </c>
-      <c r="H88">
-        <v>16</v>
-      </c>
-      <c r="N88" s="3">
-        <v>7</v>
-      </c>
-      <c r="O88" s="3">
-        <v>6.3927999999999999E-2</v>
-      </c>
-      <c r="P88" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -7353,26 +5203,8 @@
       <c r="D89">
         <v>7</v>
       </c>
-      <c r="F89">
-        <v>31</v>
-      </c>
-      <c r="G89">
-        <v>1.13499E-3</v>
-      </c>
-      <c r="H89">
-        <v>16</v>
-      </c>
-      <c r="N89" s="3">
-        <v>7</v>
-      </c>
-      <c r="O89" s="3">
-        <v>6.8908899999999995E-2</v>
-      </c>
-      <c r="P89" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -7385,26 +5217,8 @@
       <c r="D90">
         <v>7</v>
       </c>
-      <c r="F90">
-        <v>31</v>
-      </c>
-      <c r="G90">
-        <v>6.5481899999999995E-4</v>
-      </c>
-      <c r="H90">
-        <v>16</v>
-      </c>
-      <c r="N90" s="3">
-        <v>7</v>
-      </c>
-      <c r="O90" s="3">
-        <v>3.8081499999999997E-2</v>
-      </c>
-      <c r="P90" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -7417,26 +5231,8 @@
       <c r="D91">
         <v>7</v>
       </c>
-      <c r="F91">
-        <v>33</v>
-      </c>
-      <c r="G91">
-        <v>1.2637E-3</v>
-      </c>
-      <c r="H91">
-        <v>17</v>
-      </c>
-      <c r="N91" s="3">
-        <v>7</v>
-      </c>
-      <c r="O91" s="3">
-        <v>2.9809499999999999E-2</v>
-      </c>
-      <c r="P91" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -7449,26 +5245,8 @@
       <c r="D92">
         <v>7</v>
       </c>
-      <c r="F92">
-        <v>35</v>
-      </c>
-      <c r="G92">
-        <v>6.9137799999999998E-4</v>
-      </c>
-      <c r="H92">
-        <v>18</v>
-      </c>
-      <c r="N92" s="3">
-        <v>7</v>
-      </c>
-      <c r="O92" s="3">
-        <v>8.0703200000000003E-2</v>
-      </c>
-      <c r="P92" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -7481,26 +5259,8 @@
       <c r="D93">
         <v>7</v>
       </c>
-      <c r="F93">
-        <v>35</v>
-      </c>
-      <c r="G93">
-        <v>6.8648699999999995E-4</v>
-      </c>
-      <c r="H93">
-        <v>18</v>
-      </c>
-      <c r="N93" s="3">
-        <v>7</v>
-      </c>
-      <c r="O93" s="3">
-        <v>8.6077899999999999E-2</v>
-      </c>
-      <c r="P93" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -7513,26 +5273,8 @@
       <c r="D94">
         <v>1</v>
       </c>
-      <c r="F94">
-        <v>2.5</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>2</v>
-      </c>
-      <c r="N94" s="3">
-        <v>1</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -7545,26 +5287,8 @@
       <c r="D95">
         <v>7</v>
       </c>
-      <c r="F95">
-        <v>35</v>
-      </c>
-      <c r="G95">
-        <v>1.2845300000000001E-3</v>
-      </c>
-      <c r="H95">
-        <v>18</v>
-      </c>
-      <c r="N95" s="3">
-        <v>2.1187999999999998</v>
-      </c>
-      <c r="O95" s="3">
-        <v>0.10190399999999999</v>
-      </c>
-      <c r="P95" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -7577,26 +5301,8 @@
       <c r="D96">
         <v>7</v>
       </c>
-      <c r="F96">
-        <v>35</v>
-      </c>
-      <c r="G96">
-        <v>5.9162600000000004E-4</v>
-      </c>
-      <c r="H96">
-        <v>18</v>
-      </c>
-      <c r="N96" s="3">
-        <v>7</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0.107792</v>
-      </c>
-      <c r="P96" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -7609,26 +5315,8 @@
       <c r="D97">
         <v>7</v>
       </c>
-      <c r="F97">
-        <v>35</v>
-      </c>
-      <c r="G97">
-        <v>1.41011E-3</v>
-      </c>
-      <c r="H97">
-        <v>18</v>
-      </c>
-      <c r="N97" s="3">
-        <v>7</v>
-      </c>
-      <c r="O97" s="3">
-        <v>0.12016300000000001</v>
-      </c>
-      <c r="P97" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -7641,26 +5329,8 @@
       <c r="D98">
         <v>7</v>
       </c>
-      <c r="F98">
-        <v>37</v>
-      </c>
-      <c r="G98">
-        <v>1.2872999999999999E-3</v>
-      </c>
-      <c r="H98">
-        <v>19</v>
-      </c>
-      <c r="N98" s="3">
-        <v>1.8798299999999999</v>
-      </c>
-      <c r="O98" s="3">
-        <v>0.11594699999999999</v>
-      </c>
-      <c r="P98" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -7671,24 +5341,6 @@
         <v>1.3533699999999999E-2</v>
       </c>
       <c r="D99">
-        <v>7</v>
-      </c>
-      <c r="F99">
-        <v>39</v>
-      </c>
-      <c r="G99">
-        <v>1.5253199999999999E-3</v>
-      </c>
-      <c r="H99">
-        <v>20</v>
-      </c>
-      <c r="N99" s="3">
-        <v>7</v>
-      </c>
-      <c r="O99" s="3">
-        <v>0.13834299999999999</v>
-      </c>
-      <c r="P99" s="3">
         <v>7</v>
       </c>
     </row>
@@ -7707,7 +5359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
@@ -38555,6 +36207,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="V1:X1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="BF1:BH1"/>
     <mergeCell ref="BJ1:BL1"/>
@@ -38565,12 +36223,6 @@
     <mergeCell ref="AP1:AR1"/>
     <mergeCell ref="AT1:AV1"/>
     <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
